--- a/Datos1AleatoriosSoloNumsClonias.xlsx
+++ b/Datos1AleatoriosSoloNumsClonias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SEPTIMO SEMESTRE\GEO-PYTHON\Parcial3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{003C194D-AC63-442A-BA1C-40BE99051194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBEDE590-9D79-4192-AA2C-CA2FA1AAA1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4140" yWindow="3105" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
@@ -417,7 +417,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1193,19 +1193,19 @@
       </c>
       <c r="C22">
         <f ca="1">RANDBETWEEN(24167,44167)</f>
-        <v>36776</v>
+        <v>40627</v>
       </c>
       <c r="D22">
         <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <f ca="1">RANDBETWEEN(2,5)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F22">
         <f ca="1">RANDBETWEEN(0,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G22" s="1">
         <v>2</v>
@@ -1216,19 +1216,19 @@
       </c>
       <c r="I22">
         <f ca="1">RANDBETWEEN(15,60)</f>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J22">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K22">
         <f ca="1">RANDBETWEEN(700,1100)</f>
-        <v>742</v>
+        <v>900</v>
       </c>
       <c r="L22">
         <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1237,19 +1237,19 @@
       </c>
       <c r="C23">
         <f t="shared" ref="C23:C60" ca="1" si="0">RANDBETWEEN(24167,44167)</f>
-        <v>42844</v>
+        <v>29405</v>
       </c>
       <c r="D23">
         <f t="shared" ref="D23:D60" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <f t="shared" ref="E23:E60" ca="1" si="2">RANDBETWEEN(2,5)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F23">
         <f t="shared" ref="F23:F60" ca="1" si="3">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23" s="1">
         <v>2</v>
@@ -1260,7 +1260,7 @@
       </c>
       <c r="I23">
         <f t="shared" ref="I23:I86" ca="1" si="5">RANDBETWEEN(15,60)</f>
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="J23">
         <f t="shared" ref="J23:J60" ca="1" si="6">RANDBETWEEN(1,3)</f>
@@ -1268,11 +1268,11 @@
       </c>
       <c r="K23">
         <f t="shared" ref="K23:K60" ca="1" si="7">RANDBETWEEN(700,1100)</f>
-        <v>1021</v>
+        <v>966</v>
       </c>
       <c r="L23">
         <f t="shared" ref="L23:L60" ca="1" si="8">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1281,11 +1281,11 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>24193</v>
+        <v>41058</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="2"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G24" s="1">
         <v>2</v>
@@ -1304,15 +1304,15 @@
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="7"/>
-        <v>825</v>
+        <v>766</v>
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="8"/>
@@ -1325,42 +1325,42 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>30939</v>
+        <v>31710</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" s="1">
         <v>2</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="5"/>
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="7"/>
-        <v>1052</v>
+        <v>1042</v>
       </c>
       <c r="L25">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1370,11 +1370,11 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>29702</v>
+        <v>32644</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="2"/>
@@ -1393,15 +1393,15 @@
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="7"/>
-        <v>811</v>
+        <v>827</v>
       </c>
       <c r="L26">
         <f t="shared" ca="1" si="8"/>
@@ -1415,30 +1415,30 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>33624</v>
+        <v>35821</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" s="1">
         <v>2</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="5"/>
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="6"/>
@@ -1446,11 +1446,11 @@
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="7"/>
-        <v>805</v>
+        <v>905</v>
       </c>
       <c r="L27">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1459,30 +1459,30 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
-        <v>41435</v>
+        <v>27856</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G28" s="1">
         <v>2</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="6"/>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="7"/>
-        <v>870</v>
+        <v>820</v>
       </c>
       <c r="L28">
         <f t="shared" ca="1" si="8"/>
@@ -1503,38 +1503,38 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="0"/>
-        <v>28526</v>
+        <v>35285</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G29" s="1">
         <v>2</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="7"/>
-        <v>1083</v>
+        <v>902</v>
       </c>
       <c r="L29">
         <f t="shared" ca="1" si="8"/>
@@ -1547,15 +1547,15 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="0"/>
-        <v>39286</v>
+        <v>24640</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="3"/>
@@ -1566,23 +1566,23 @@
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="7"/>
-        <v>700</v>
+        <v>853</v>
       </c>
       <c r="L30">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1591,11 +1591,11 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>33109</v>
+        <v>43646</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="2"/>
@@ -1603,30 +1603,30 @@
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G31" s="1">
         <v>2</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="5"/>
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="7"/>
-        <v>1088</v>
+        <v>702</v>
       </c>
       <c r="L31">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1635,38 +1635,38 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>38331</v>
+        <v>26255</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G32" s="1">
         <v>2</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="7"/>
-        <v>1063</v>
+        <v>935</v>
       </c>
       <c r="L32">
         <f t="shared" ca="1" si="8"/>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="0"/>
-        <v>30688</v>
+        <v>31098</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="1"/>
@@ -1702,19 +1702,19 @@
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="7"/>
-        <v>1076</v>
+        <v>922</v>
       </c>
       <c r="L33">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1723,7 +1723,7 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="0"/>
-        <v>41428</v>
+        <v>29123</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="1"/>
@@ -1731,22 +1731,22 @@
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G34" s="1">
         <v>2</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <f t="shared" ca="1" si="5"/>
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="J34">
         <f t="shared" ca="1" si="6"/>
@@ -1754,11 +1754,11 @@
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="7"/>
-        <v>857</v>
+        <v>702</v>
       </c>
       <c r="L34">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1767,19 +1767,19 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="0"/>
-        <v>27828</v>
+        <v>42904</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G35" s="1">
         <v>2</v>
@@ -1790,7 +1790,7 @@
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="5"/>
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="6"/>
@@ -1798,11 +1798,11 @@
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="7"/>
-        <v>991</v>
+        <v>933</v>
       </c>
       <c r="L35">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="0"/>
-        <v>30441</v>
+        <v>34868</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="1"/>
@@ -1819,11 +1819,11 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" s="1">
         <v>2</v>
@@ -1834,19 +1834,19 @@
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="5"/>
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="7"/>
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="L36">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1855,7 +1855,7 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="0"/>
-        <v>28830</v>
+        <v>38486</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="1"/>
@@ -1863,11 +1863,11 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G37" s="1">
         <v>2</v>
@@ -1878,19 +1878,19 @@
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="7"/>
-        <v>706</v>
+        <v>1052</v>
       </c>
       <c r="L37">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1899,19 +1899,19 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="0"/>
-        <v>29091</v>
+        <v>42609</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G38" s="1">
         <v>2</v>
@@ -1922,7 +1922,7 @@
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="6"/>
@@ -1930,11 +1930,11 @@
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="7"/>
-        <v>732</v>
+        <v>957</v>
       </c>
       <c r="L38">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1943,15 +1943,15 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="0"/>
-        <v>34823</v>
+        <v>35354</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="3"/>
@@ -1966,19 +1966,19 @@
       </c>
       <c r="I39">
         <f t="shared" ca="1" si="5"/>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="7"/>
-        <v>831</v>
+        <v>787</v>
       </c>
       <c r="L39">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="0"/>
-        <v>34134</v>
+        <v>37582</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="1"/>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="3"/>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="5"/>
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="6"/>
@@ -2018,11 +2018,11 @@
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="7"/>
-        <v>826</v>
+        <v>906</v>
       </c>
       <c r="L40">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2031,15 +2031,15 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="0"/>
-        <v>42431</v>
+        <v>30204</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="3"/>
@@ -2050,23 +2050,23 @@
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="J41">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K41">
         <f t="shared" ca="1" si="7"/>
-        <v>767</v>
+        <v>1047</v>
       </c>
       <c r="L41">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2075,19 +2075,19 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="0"/>
-        <v>25209</v>
+        <v>30426</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" s="1">
         <v>2</v>
@@ -2098,19 +2098,19 @@
       </c>
       <c r="I42">
         <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="J42">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K42">
         <f t="shared" ca="1" si="7"/>
-        <v>1022</v>
+        <v>709</v>
       </c>
       <c r="L42">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="0"/>
-        <v>25737</v>
+        <v>25430</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="3"/>
@@ -2138,11 +2138,11 @@
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J43">
         <f t="shared" ca="1" si="6"/>
@@ -2150,11 +2150,11 @@
       </c>
       <c r="K43">
         <f t="shared" ca="1" si="7"/>
-        <v>888</v>
+        <v>857</v>
       </c>
       <c r="L43">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2163,15 +2163,15 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="0"/>
-        <v>38938</v>
+        <v>31865</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="3"/>
@@ -2186,15 +2186,15 @@
       </c>
       <c r="I44">
         <f t="shared" ca="1" si="5"/>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J44">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K44">
         <f t="shared" ca="1" si="7"/>
-        <v>798</v>
+        <v>756</v>
       </c>
       <c r="L44">
         <f t="shared" ca="1" si="8"/>
@@ -2207,30 +2207,30 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="0"/>
-        <v>33171</v>
+        <v>25783</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G45" s="1">
         <v>2</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45">
         <f t="shared" ca="1" si="5"/>
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="J45">
         <f t="shared" ca="1" si="6"/>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="K45">
         <f t="shared" ca="1" si="7"/>
-        <v>860</v>
+        <v>988</v>
       </c>
       <c r="L45">
         <f t="shared" ca="1" si="8"/>
@@ -2251,15 +2251,15 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="0"/>
-        <v>28075</v>
+        <v>39081</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="3"/>
@@ -2270,23 +2270,23 @@
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J46">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="7"/>
-        <v>1018</v>
+        <v>733</v>
       </c>
       <c r="L46">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2295,15 +2295,15 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="0"/>
-        <v>43880</v>
+        <v>40798</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="3"/>
@@ -2314,11 +2314,11 @@
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47">
         <f t="shared" ca="1" si="5"/>
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="J47">
         <f t="shared" ca="1" si="6"/>
@@ -2326,11 +2326,11 @@
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="7"/>
-        <v>788</v>
+        <v>816</v>
       </c>
       <c r="L47">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2339,15 +2339,15 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="0"/>
-        <v>42791</v>
+        <v>26409</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="3"/>
@@ -2362,19 +2362,19 @@
       </c>
       <c r="I48">
         <f t="shared" ca="1" si="5"/>
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="J48">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K48">
         <f t="shared" ca="1" si="7"/>
-        <v>755</v>
+        <v>772</v>
       </c>
       <c r="L48">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2383,42 +2383,42 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="0"/>
-        <v>42671</v>
+        <v>41852</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G49" s="1">
         <v>2</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49">
         <f t="shared" ca="1" si="5"/>
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="J49">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K49">
         <f t="shared" ca="1" si="7"/>
-        <v>788</v>
+        <v>819</v>
       </c>
       <c r="L49">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2427,7 +2427,7 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="0"/>
-        <v>28422</v>
+        <v>43418</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="1"/>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="3"/>
@@ -2450,19 +2450,19 @@
       </c>
       <c r="I50">
         <f t="shared" ca="1" si="5"/>
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="J50">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K50">
         <f t="shared" ca="1" si="7"/>
-        <v>805</v>
+        <v>724</v>
       </c>
       <c r="L50">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2471,7 +2471,7 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="0"/>
-        <v>43057</v>
+        <v>36503</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="1"/>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="3"/>
@@ -2494,19 +2494,19 @@
       </c>
       <c r="I51">
         <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="J51">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K51">
         <f t="shared" ca="1" si="7"/>
-        <v>770</v>
+        <v>714</v>
       </c>
       <c r="L51">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="0"/>
-        <v>40253</v>
+        <v>35664</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="1"/>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G52" s="1">
         <v>2</v>
@@ -2538,19 +2538,19 @@
       </c>
       <c r="I52">
         <f t="shared" ca="1" si="5"/>
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="J52">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K52">
         <f t="shared" ca="1" si="7"/>
-        <v>1026</v>
+        <v>841</v>
       </c>
       <c r="L52">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2559,15 +2559,15 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="0"/>
-        <v>29885</v>
+        <v>29078</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="3"/>
@@ -2578,11 +2578,11 @@
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J53">
         <f t="shared" ca="1" si="6"/>
@@ -2590,11 +2590,11 @@
       </c>
       <c r="K53">
         <f t="shared" ca="1" si="7"/>
-        <v>1059</v>
+        <v>759</v>
       </c>
       <c r="L53">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2603,15 +2603,15 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="0"/>
-        <v>24206</v>
+        <v>31678</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="3"/>
@@ -2626,7 +2626,7 @@
       </c>
       <c r="I54">
         <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J54">
         <f t="shared" ca="1" si="6"/>
@@ -2634,11 +2634,11 @@
       </c>
       <c r="K54">
         <f t="shared" ca="1" si="7"/>
-        <v>809</v>
+        <v>1012</v>
       </c>
       <c r="L54">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2647,42 +2647,42 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="0"/>
-        <v>35234</v>
+        <v>38817</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G55" s="1">
         <v>2</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="J55">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K55">
         <f t="shared" ca="1" si="7"/>
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="L55">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="0"/>
-        <v>25417</v>
+        <v>35028</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="1"/>
@@ -2703,26 +2703,26 @@
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G56" s="1">
         <v>2</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56">
         <f t="shared" ca="1" si="5"/>
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="J56">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K56">
         <f t="shared" ca="1" si="7"/>
-        <v>772</v>
+        <v>838</v>
       </c>
       <c r="L56">
         <f t="shared" ca="1" si="8"/>
@@ -2735,11 +2735,11 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="0"/>
-        <v>34588</v>
+        <v>35782</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="2"/>
@@ -2747,7 +2747,7 @@
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G57" s="1">
         <v>2</v>
@@ -2758,19 +2758,19 @@
       </c>
       <c r="I57">
         <f t="shared" ca="1" si="5"/>
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="J57">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K57">
         <f t="shared" ca="1" si="7"/>
-        <v>702</v>
+        <v>871</v>
       </c>
       <c r="L57">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2779,15 +2779,15 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="0"/>
-        <v>27274</v>
+        <v>35673</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="3"/>
@@ -2798,11 +2798,11 @@
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58">
         <f t="shared" ca="1" si="5"/>
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="J58">
         <f t="shared" ca="1" si="6"/>
@@ -2810,11 +2810,11 @@
       </c>
       <c r="K58">
         <f t="shared" ca="1" si="7"/>
-        <v>754</v>
+        <v>868</v>
       </c>
       <c r="L58">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2823,11 +2823,11 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="0"/>
-        <v>28585</v>
+        <v>38941</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="2"/>
@@ -2835,30 +2835,30 @@
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G59" s="1">
         <v>2</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59">
         <f t="shared" ca="1" si="5"/>
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="J59">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K59">
         <f t="shared" ca="1" si="7"/>
-        <v>710</v>
+        <v>1070</v>
       </c>
       <c r="L59">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2867,19 +2867,19 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="0"/>
-        <v>35284</v>
+        <v>41126</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G60" s="1">
         <v>2</v>
@@ -2890,19 +2890,19 @@
       </c>
       <c r="I60">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="J60">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K60">
         <f t="shared" ca="1" si="7"/>
-        <v>880</v>
+        <v>812</v>
       </c>
       <c r="L60">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2911,19 +2911,19 @@
       </c>
       <c r="C61">
         <f ca="1">RANDBETWEEN(3000,15000)</f>
-        <v>10220</v>
+        <v>3007</v>
       </c>
       <c r="D61">
         <f ca="1">RANDBETWEEN(5,7)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E61">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61">
         <f ca="1">RANDBETWEEN(0,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" s="1">
         <v>1</v>
@@ -2942,11 +2942,11 @@
       </c>
       <c r="K61">
         <f ca="1">RANDBETWEEN(130,350)</f>
-        <v>220</v>
+        <v>316</v>
       </c>
       <c r="L61">
         <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2955,11 +2955,11 @@
       </c>
       <c r="C62">
         <f t="shared" ref="C62:C100" ca="1" si="9">RANDBETWEEN(3000,15000)</f>
-        <v>5338</v>
+        <v>8553</v>
       </c>
       <c r="D62">
         <f t="shared" ref="D62:D100" ca="1" si="10">RANDBETWEEN(5,7)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E62">
         <f t="shared" ref="E62:E100" ca="1" si="11">RANDBETWEEN(1,3)</f>
@@ -2967,30 +2967,30 @@
       </c>
       <c r="F62">
         <f t="shared" ref="F62:F100" ca="1" si="12">RANDBETWEEN(0,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" s="1">
         <v>1</v>
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J62">
         <f t="shared" ref="J62:J100" ca="1" si="13">RANDBETWEEN(0,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K62">
         <f t="shared" ref="K62:K100" ca="1" si="14">RANDBETWEEN(130,350)</f>
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="L62">
         <f t="shared" ref="L62:L100" ca="1" si="15">RANDBETWEEN(1,6)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2999,7 +2999,7 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="9"/>
-        <v>3454</v>
+        <v>5661</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="10"/>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G63" s="1">
         <v>1</v>
@@ -3022,7 +3022,7 @@
       </c>
       <c r="I63">
         <f t="shared" ca="1" si="5"/>
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J63">
         <f t="shared" ca="1" si="13"/>
@@ -3030,11 +3030,11 @@
       </c>
       <c r="K63">
         <f t="shared" ca="1" si="14"/>
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="L63">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3043,19 +3043,19 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="9"/>
-        <v>8729</v>
+        <v>14801</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G64" s="1">
         <v>1</v>
@@ -3066,15 +3066,15 @@
       </c>
       <c r="I64">
         <f t="shared" ca="1" si="5"/>
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="J64">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K64">
         <f t="shared" ca="1" si="14"/>
-        <v>204</v>
+        <v>347</v>
       </c>
       <c r="L64">
         <f t="shared" ca="1" si="15"/>
@@ -3087,30 +3087,30 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="9"/>
-        <v>12114</v>
+        <v>8966</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" s="1">
         <v>1</v>
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65">
         <f t="shared" ca="1" si="5"/>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J65">
         <f t="shared" ca="1" si="13"/>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="K65">
         <f t="shared" ca="1" si="14"/>
-        <v>184</v>
+        <v>250</v>
       </c>
       <c r="L65">
         <f t="shared" ca="1" si="15"/>
@@ -3131,15 +3131,15 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="9"/>
-        <v>8153</v>
+        <v>13082</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="12"/>
@@ -3154,19 +3154,19 @@
       </c>
       <c r="I66">
         <f t="shared" ca="1" si="5"/>
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="J66">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66">
         <f t="shared" ca="1" si="14"/>
-        <v>145</v>
+        <v>262</v>
       </c>
       <c r="L66">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3175,19 +3175,19 @@
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="9"/>
-        <v>10358</v>
+        <v>10814</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G67" s="1">
         <v>1</v>
@@ -3198,19 +3198,19 @@
       </c>
       <c r="I67">
         <f t="shared" ca="1" si="5"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J67">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K67">
         <f t="shared" ca="1" si="14"/>
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="L67">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3219,7 +3219,7 @@
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="9"/>
-        <v>5330</v>
+        <v>11097</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="10"/>
@@ -3227,34 +3227,34 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G68" s="1">
         <v>1</v>
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68">
         <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J68">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K68">
         <f t="shared" ca="1" si="14"/>
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L68">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3263,11 +3263,11 @@
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="9"/>
-        <v>9954</v>
+        <v>12381</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="11"/>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G69" s="1">
         <v>1</v>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="I69">
         <f t="shared" ca="1" si="5"/>
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="J69">
         <f t="shared" ca="1" si="13"/>
@@ -3294,11 +3294,11 @@
       </c>
       <c r="K69">
         <f t="shared" ca="1" si="14"/>
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="L69">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3307,19 +3307,19 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="9"/>
-        <v>10790</v>
+        <v>8538</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G70" s="1">
         <v>1</v>
@@ -3330,19 +3330,19 @@
       </c>
       <c r="I70">
         <f t="shared" ca="1" si="5"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J70">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K70">
         <f t="shared" ca="1" si="14"/>
-        <v>235</v>
+        <v>138</v>
       </c>
       <c r="L70">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="9"/>
-        <v>10462</v>
+        <v>3649</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="10"/>
@@ -3359,11 +3359,11 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G71" s="1">
         <v>1</v>
@@ -3374,19 +3374,19 @@
       </c>
       <c r="I71">
         <f t="shared" ca="1" si="5"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J71">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K71">
         <f t="shared" ca="1" si="14"/>
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="L71">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3395,15 +3395,15 @@
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="9"/>
-        <v>5258</v>
+        <v>5046</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="12"/>
@@ -3414,23 +3414,23 @@
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="J72">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K72">
         <f t="shared" ca="1" si="14"/>
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L72">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3439,11 +3439,11 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="9"/>
-        <v>8059</v>
+        <v>5923</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="11"/>
@@ -3458,23 +3458,23 @@
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73">
         <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J73">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K73">
         <f t="shared" ca="1" si="14"/>
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="L73">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3483,42 +3483,42 @@
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="9"/>
-        <v>14610</v>
+        <v>8169</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G74" s="1">
         <v>1</v>
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74">
         <f t="shared" ca="1" si="5"/>
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="J74">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K74">
         <f t="shared" ca="1" si="14"/>
-        <v>130</v>
+        <v>267</v>
       </c>
       <c r="L74">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3527,19 +3527,19 @@
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="9"/>
-        <v>6643</v>
+        <v>9231</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G75" s="1">
         <v>1</v>
@@ -3554,15 +3554,15 @@
       </c>
       <c r="J75">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K75">
         <f t="shared" ca="1" si="14"/>
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="L75">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3571,11 +3571,11 @@
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="9"/>
-        <v>13188</v>
+        <v>12687</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="11"/>
@@ -3583,7 +3583,7 @@
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G76" s="1">
         <v>1</v>
@@ -3594,7 +3594,7 @@
       </c>
       <c r="I76">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J76">
         <f t="shared" ca="1" si="13"/>
@@ -3602,11 +3602,11 @@
       </c>
       <c r="K76">
         <f t="shared" ca="1" si="14"/>
-        <v>173</v>
+        <v>344</v>
       </c>
       <c r="L76">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3615,30 +3615,30 @@
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="9"/>
-        <v>8658</v>
+        <v>11926</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" s="1">
         <v>1</v>
       </c>
       <c r="H77">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77">
         <f t="shared" ca="1" si="5"/>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J77">
         <f t="shared" ca="1" si="13"/>
@@ -3646,11 +3646,11 @@
       </c>
       <c r="K77">
         <f t="shared" ca="1" si="14"/>
-        <v>337</v>
+        <v>264</v>
       </c>
       <c r="L77">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3659,11 +3659,11 @@
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="9"/>
-        <v>14775</v>
+        <v>5790</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="11"/>
@@ -3682,7 +3682,7 @@
       </c>
       <c r="I78">
         <f t="shared" ca="1" si="5"/>
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="J78">
         <f t="shared" ca="1" si="13"/>
@@ -3690,11 +3690,11 @@
       </c>
       <c r="K78">
         <f t="shared" ca="1" si="14"/>
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="L78">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3703,7 +3703,7 @@
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="9"/>
-        <v>5552</v>
+        <v>12077</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="10"/>
@@ -3722,11 +3722,11 @@
       </c>
       <c r="H79">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79">
         <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="J79">
         <f t="shared" ca="1" si="13"/>
@@ -3734,11 +3734,11 @@
       </c>
       <c r="K79">
         <f t="shared" ca="1" si="14"/>
-        <v>333</v>
+        <v>221</v>
       </c>
       <c r="L79">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="9"/>
-        <v>9433</v>
+        <v>13280</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="10"/>
@@ -3755,34 +3755,34 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G80" s="1">
         <v>1</v>
       </c>
       <c r="H80">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80">
         <f t="shared" ca="1" si="5"/>
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J80">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K80">
         <f t="shared" ca="1" si="14"/>
-        <v>147</v>
+        <v>325</v>
       </c>
       <c r="L80">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3791,19 +3791,19 @@
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="9"/>
-        <v>9433</v>
+        <v>3183</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G81" s="1">
         <v>1</v>
@@ -3814,19 +3814,19 @@
       </c>
       <c r="I81">
         <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="J81">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K81">
         <f t="shared" ca="1" si="14"/>
-        <v>265</v>
+        <v>320</v>
       </c>
       <c r="L81">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3835,11 +3835,11 @@
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="9"/>
-        <v>8071</v>
+        <v>10706</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="11"/>
@@ -3847,7 +3847,7 @@
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G82" s="1">
         <v>1</v>
@@ -3858,19 +3858,19 @@
       </c>
       <c r="I82">
         <f t="shared" ca="1" si="5"/>
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="J82">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K82">
         <f t="shared" ca="1" si="14"/>
-        <v>133</v>
+        <v>313</v>
       </c>
       <c r="L82">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3879,7 +3879,7 @@
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="9"/>
-        <v>7414</v>
+        <v>10014</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="10"/>
@@ -3891,18 +3891,18 @@
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G83" s="1">
         <v>1</v>
       </c>
       <c r="H83">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83">
         <f t="shared" ca="1" si="5"/>
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="J83">
         <f t="shared" ca="1" si="13"/>
@@ -3910,11 +3910,11 @@
       </c>
       <c r="K83">
         <f t="shared" ca="1" si="14"/>
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="L83">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3923,38 +3923,38 @@
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="9"/>
-        <v>14789</v>
+        <v>10790</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G84" s="1">
         <v>1</v>
       </c>
       <c r="H84">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84">
         <f t="shared" ca="1" si="5"/>
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="J84">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K84">
         <f t="shared" ca="1" si="14"/>
-        <v>132</v>
+        <v>241</v>
       </c>
       <c r="L84">
         <f t="shared" ca="1" si="15"/>
@@ -3967,19 +3967,19 @@
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="9"/>
-        <v>3537</v>
+        <v>5817</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" s="1">
         <v>1</v>
@@ -3990,7 +3990,7 @@
       </c>
       <c r="I85">
         <f t="shared" ca="1" si="5"/>
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="J85">
         <f t="shared" ca="1" si="13"/>
@@ -3998,11 +3998,11 @@
       </c>
       <c r="K85">
         <f t="shared" ca="1" si="14"/>
-        <v>131</v>
+        <v>221</v>
       </c>
       <c r="L85">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4011,19 +4011,19 @@
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="9"/>
-        <v>4855</v>
+        <v>10493</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" s="1">
         <v>1</v>
@@ -4034,19 +4034,19 @@
       </c>
       <c r="I86">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J86">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K86">
         <f t="shared" ca="1" si="14"/>
-        <v>236</v>
+        <v>166</v>
       </c>
       <c r="L86">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4055,11 +4055,11 @@
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="9"/>
-        <v>8339</v>
+        <v>8640</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="11"/>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G87" s="1">
         <v>1</v>
@@ -4078,7 +4078,7 @@
       </c>
       <c r="I87">
         <f t="shared" ref="I87:I140" ca="1" si="17">RANDBETWEEN(15,60)</f>
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="J87">
         <f t="shared" ca="1" si="13"/>
@@ -4086,11 +4086,11 @@
       </c>
       <c r="K87">
         <f t="shared" ca="1" si="14"/>
-        <v>308</v>
+        <v>248</v>
       </c>
       <c r="L87">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4099,11 +4099,11 @@
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="9"/>
-        <v>11355</v>
+        <v>12959</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="11"/>
@@ -4122,19 +4122,19 @@
       </c>
       <c r="I88">
         <f t="shared" ca="1" si="17"/>
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J88">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K88">
         <f t="shared" ca="1" si="14"/>
-        <v>192</v>
+        <v>291</v>
       </c>
       <c r="L88">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4143,15 +4143,15 @@
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="9"/>
-        <v>10903</v>
+        <v>5907</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="12"/>
@@ -4162,11 +4162,11 @@
       </c>
       <c r="H89">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89">
         <f t="shared" ca="1" si="17"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J89">
         <f t="shared" ca="1" si="13"/>
@@ -4174,11 +4174,11 @@
       </c>
       <c r="K89">
         <f t="shared" ca="1" si="14"/>
-        <v>256</v>
+        <v>182</v>
       </c>
       <c r="L89">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4187,42 +4187,42 @@
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="9"/>
-        <v>4886</v>
+        <v>8956</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" s="1">
         <v>1</v>
       </c>
       <c r="H90">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90">
         <f t="shared" ca="1" si="17"/>
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="J90">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90">
         <f t="shared" ca="1" si="14"/>
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="L90">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4231,19 +4231,19 @@
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="9"/>
-        <v>12103</v>
+        <v>5955</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G91" s="1">
         <v>1</v>
@@ -4254,19 +4254,19 @@
       </c>
       <c r="I91">
         <f t="shared" ca="1" si="17"/>
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="J91">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K91">
         <f t="shared" ca="1" si="14"/>
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="L91">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4275,19 +4275,19 @@
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="9"/>
-        <v>13335</v>
+        <v>6564</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G92" s="1">
         <v>1</v>
@@ -4298,7 +4298,7 @@
       </c>
       <c r="I92">
         <f t="shared" ca="1" si="17"/>
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J92">
         <f t="shared" ca="1" si="13"/>
@@ -4306,11 +4306,11 @@
       </c>
       <c r="K92">
         <f t="shared" ca="1" si="14"/>
-        <v>278</v>
+        <v>208</v>
       </c>
       <c r="L92">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4319,7 +4319,7 @@
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="9"/>
-        <v>7985</v>
+        <v>5751</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="10"/>
@@ -4327,7 +4327,7 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="12"/>
@@ -4342,19 +4342,19 @@
       </c>
       <c r="I93">
         <f t="shared" ca="1" si="17"/>
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J93">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K93">
         <f t="shared" ca="1" si="14"/>
-        <v>283</v>
+        <v>246</v>
       </c>
       <c r="L93">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="9"/>
-        <v>9547</v>
+        <v>12062</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="10"/>
@@ -4371,11 +4371,11 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" s="1">
         <v>1</v>
@@ -4386,7 +4386,7 @@
       </c>
       <c r="I94">
         <f t="shared" ca="1" si="17"/>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J94">
         <f t="shared" ca="1" si="13"/>
@@ -4394,11 +4394,11 @@
       </c>
       <c r="K94">
         <f t="shared" ca="1" si="14"/>
-        <v>302</v>
+        <v>133</v>
       </c>
       <c r="L94">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4407,15 +4407,15 @@
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="9"/>
-        <v>14485</v>
+        <v>8131</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="12"/>
@@ -4426,23 +4426,23 @@
       </c>
       <c r="H95">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95">
         <f t="shared" ca="1" si="17"/>
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J95">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K95">
         <f t="shared" ca="1" si="14"/>
-        <v>164</v>
+        <v>284</v>
       </c>
       <c r="L95">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4451,7 +4451,7 @@
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="9"/>
-        <v>11499</v>
+        <v>5654</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="10"/>
@@ -4463,30 +4463,30 @@
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G96" s="1">
         <v>1</v>
       </c>
       <c r="H96">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96">
         <f t="shared" ca="1" si="17"/>
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="J96">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K96">
         <f t="shared" ca="1" si="14"/>
-        <v>253</v>
+        <v>167</v>
       </c>
       <c r="L96">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4495,7 +4495,7 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="9"/>
-        <v>4141</v>
+        <v>6135</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="10"/>
@@ -4503,7 +4503,7 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="12"/>
@@ -4518,7 +4518,7 @@
       </c>
       <c r="I97">
         <f t="shared" ca="1" si="17"/>
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J97">
         <f t="shared" ca="1" si="13"/>
@@ -4526,11 +4526,11 @@
       </c>
       <c r="K97">
         <f t="shared" ca="1" si="14"/>
-        <v>332</v>
+        <v>187</v>
       </c>
       <c r="L97">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="9"/>
-        <v>10010</v>
+        <v>11274</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="10"/>
@@ -4562,19 +4562,19 @@
       </c>
       <c r="I98">
         <f t="shared" ca="1" si="17"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J98">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K98">
         <f t="shared" ca="1" si="14"/>
-        <v>238</v>
+        <v>332</v>
       </c>
       <c r="L98">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4583,7 +4583,7 @@
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="9"/>
-        <v>8750</v>
+        <v>6803</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="10"/>
@@ -4591,22 +4591,22 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G99" s="1">
         <v>1</v>
       </c>
       <c r="H99">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99">
         <f t="shared" ca="1" si="17"/>
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="J99">
         <f t="shared" ca="1" si="13"/>
@@ -4614,11 +4614,11 @@
       </c>
       <c r="K99">
         <f t="shared" ca="1" si="14"/>
-        <v>141</v>
+        <v>346</v>
       </c>
       <c r="L99">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4627,7 +4627,7 @@
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="9"/>
-        <v>14166</v>
+        <v>8344</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="10"/>
@@ -4635,11 +4635,11 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G100" s="1">
         <v>1</v>
@@ -4650,19 +4650,19 @@
       </c>
       <c r="I100">
         <f t="shared" ca="1" si="17"/>
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="J100">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K100">
         <f t="shared" ca="1" si="14"/>
-        <v>218</v>
+        <v>270</v>
       </c>
       <c r="L100">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="C101">
         <f ca="1">RANDBETWEEN(50000,130000)</f>
-        <v>71987</v>
+        <v>69966</v>
       </c>
       <c r="D101">
         <f ca="1">RANDBETWEEN(7,10)</f>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="E101">
         <f ca="1">RANDBETWEEN(2,7)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F101">
         <f ca="1">RANDBETWEEN(1,3)</f>
@@ -4694,19 +4694,19 @@
       </c>
       <c r="I101">
         <f t="shared" ca="1" si="17"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J101">
         <f ca="1">RANDBETWEEN(3,7)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K101">
         <f ca="1">RANDBETWEEN(1200,3000)</f>
-        <v>2287</v>
+        <v>1200</v>
       </c>
       <c r="L101">
         <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4715,19 +4715,19 @@
       </c>
       <c r="C102">
         <f t="shared" ref="C102:C140" ca="1" si="18">RANDBETWEEN(50000,130000)</f>
-        <v>127630</v>
+        <v>108342</v>
       </c>
       <c r="D102">
         <f t="shared" ref="D102:D140" ca="1" si="19">RANDBETWEEN(7,10)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E102">
         <f t="shared" ref="E102:E140" ca="1" si="20">RANDBETWEEN(2,7)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F102">
         <f t="shared" ref="F102:F140" ca="1" si="21">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G102">
         <v>3</v>
@@ -4738,19 +4738,19 @@
       </c>
       <c r="I102">
         <f t="shared" ca="1" si="17"/>
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="J102">
         <f t="shared" ref="J102:J140" ca="1" si="22">RANDBETWEEN(3,7)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K102">
         <f t="shared" ref="K102:K140" ca="1" si="23">RANDBETWEEN(1200,3000)</f>
-        <v>2534</v>
+        <v>1549</v>
       </c>
       <c r="L102">
         <f t="shared" ref="L102:L140" ca="1" si="24">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="C103">
         <f t="shared" ca="1" si="18"/>
-        <v>70811</v>
+        <v>126376</v>
       </c>
       <c r="D103">
         <f t="shared" ca="1" si="19"/>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="F103">
         <f t="shared" ca="1" si="21"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G103">
         <v>3</v>
@@ -4782,19 +4782,19 @@
       </c>
       <c r="I103">
         <f t="shared" ca="1" si="17"/>
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="J103">
         <f t="shared" ca="1" si="22"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K103">
         <f t="shared" ca="1" si="23"/>
-        <v>2070</v>
+        <v>1971</v>
       </c>
       <c r="L103">
         <f t="shared" ca="1" si="24"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4803,7 +4803,7 @@
       </c>
       <c r="C104">
         <f t="shared" ca="1" si="18"/>
-        <v>92743</v>
+        <v>52946</v>
       </c>
       <c r="D104">
         <f t="shared" ca="1" si="19"/>
@@ -4811,11 +4811,11 @@
       </c>
       <c r="E104">
         <f t="shared" ca="1" si="20"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F104">
         <f t="shared" ca="1" si="21"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G104">
         <v>3</v>
@@ -4826,19 +4826,19 @@
       </c>
       <c r="I104">
         <f t="shared" ca="1" si="17"/>
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="J104">
         <f t="shared" ca="1" si="22"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K104">
         <f t="shared" ca="1" si="23"/>
-        <v>2478</v>
+        <v>1663</v>
       </c>
       <c r="L104">
         <f t="shared" ca="1" si="24"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4847,42 +4847,42 @@
       </c>
       <c r="C105">
         <f t="shared" ca="1" si="18"/>
-        <v>79648</v>
+        <v>115484</v>
       </c>
       <c r="D105">
         <f t="shared" ca="1" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E105">
         <f t="shared" ca="1" si="20"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F105">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G105">
         <v>3</v>
       </c>
       <c r="H105">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105">
         <f t="shared" ca="1" si="17"/>
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="J105">
         <f t="shared" ca="1" si="22"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K105">
         <f t="shared" ca="1" si="23"/>
-        <v>1625</v>
+        <v>1359</v>
       </c>
       <c r="L105">
         <f t="shared" ca="1" si="24"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4891,15 +4891,15 @@
       </c>
       <c r="C106">
         <f t="shared" ca="1" si="18"/>
-        <v>74104</v>
+        <v>106552</v>
       </c>
       <c r="D106">
         <f t="shared" ca="1" si="19"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E106">
         <f t="shared" ca="1" si="20"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F106">
         <f t="shared" ca="1" si="21"/>
@@ -4910,11 +4910,11 @@
       </c>
       <c r="H106">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106">
         <f t="shared" ca="1" si="17"/>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J106">
         <f t="shared" ca="1" si="22"/>
@@ -4922,11 +4922,11 @@
       </c>
       <c r="K106">
         <f t="shared" ca="1" si="23"/>
-        <v>1913</v>
+        <v>1407</v>
       </c>
       <c r="L106">
         <f t="shared" ca="1" si="24"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4935,15 +4935,15 @@
       </c>
       <c r="C107">
         <f t="shared" ca="1" si="18"/>
-        <v>104058</v>
+        <v>54923</v>
       </c>
       <c r="D107">
         <f t="shared" ca="1" si="19"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E107">
         <f t="shared" ca="1" si="20"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F107">
         <f t="shared" ca="1" si="21"/>
@@ -4958,19 +4958,19 @@
       </c>
       <c r="I107">
         <f t="shared" ca="1" si="17"/>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J107">
         <f t="shared" ca="1" si="22"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K107">
         <f t="shared" ca="1" si="23"/>
-        <v>1657</v>
+        <v>2399</v>
       </c>
       <c r="L107">
         <f t="shared" ca="1" si="24"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4979,42 +4979,42 @@
       </c>
       <c r="C108">
         <f t="shared" ca="1" si="18"/>
-        <v>59361</v>
+        <v>119676</v>
       </c>
       <c r="D108">
         <f t="shared" ca="1" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E108">
         <f t="shared" ca="1" si="20"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F108">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G108">
         <v>3</v>
       </c>
       <c r="H108">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108">
         <f t="shared" ca="1" si="17"/>
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="J108">
         <f t="shared" ca="1" si="22"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K108">
         <f t="shared" ca="1" si="23"/>
-        <v>2766</v>
+        <v>2986</v>
       </c>
       <c r="L108">
         <f t="shared" ca="1" si="24"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5023,15 +5023,15 @@
       </c>
       <c r="C109">
         <f t="shared" ca="1" si="18"/>
-        <v>97837</v>
+        <v>114265</v>
       </c>
       <c r="D109">
         <f t="shared" ca="1" si="19"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109">
         <f t="shared" ca="1" si="20"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F109">
         <f t="shared" ca="1" si="21"/>
@@ -5046,19 +5046,19 @@
       </c>
       <c r="I109">
         <f t="shared" ca="1" si="17"/>
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="J109">
         <f t="shared" ca="1" si="22"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K109">
         <f t="shared" ca="1" si="23"/>
-        <v>2450</v>
+        <v>2459</v>
       </c>
       <c r="L109">
         <f t="shared" ca="1" si="24"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5067,11 +5067,11 @@
       </c>
       <c r="C110">
         <f t="shared" ca="1" si="18"/>
-        <v>50918</v>
+        <v>56992</v>
       </c>
       <c r="D110">
         <f t="shared" ca="1" si="19"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E110">
         <f t="shared" ca="1" si="20"/>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="F110">
         <f t="shared" ca="1" si="21"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G110">
         <v>3</v>
@@ -5090,7 +5090,7 @@
       </c>
       <c r="I110">
         <f t="shared" ca="1" si="17"/>
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="J110">
         <f t="shared" ca="1" si="22"/>
@@ -5098,11 +5098,11 @@
       </c>
       <c r="K110">
         <f t="shared" ca="1" si="23"/>
-        <v>2899</v>
+        <v>2157</v>
       </c>
       <c r="L110">
         <f t="shared" ca="1" si="24"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5111,11 +5111,11 @@
       </c>
       <c r="C111">
         <f t="shared" ca="1" si="18"/>
-        <v>120655</v>
+        <v>68860</v>
       </c>
       <c r="D111">
         <f t="shared" ca="1" si="19"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E111">
         <f t="shared" ca="1" si="20"/>
@@ -5134,7 +5134,7 @@
       </c>
       <c r="I111">
         <f t="shared" ca="1" si="17"/>
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="J111">
         <f t="shared" ca="1" si="22"/>
@@ -5142,7 +5142,7 @@
       </c>
       <c r="K111">
         <f t="shared" ca="1" si="23"/>
-        <v>2707</v>
+        <v>1354</v>
       </c>
       <c r="L111">
         <f t="shared" ca="1" si="24"/>
@@ -5155,19 +5155,19 @@
       </c>
       <c r="C112">
         <f t="shared" ca="1" si="18"/>
-        <v>94576</v>
+        <v>56304</v>
       </c>
       <c r="D112">
         <f t="shared" ca="1" si="19"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E112">
         <f t="shared" ca="1" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F112">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G112">
         <v>3</v>
@@ -5178,19 +5178,19 @@
       </c>
       <c r="I112">
         <f t="shared" ca="1" si="17"/>
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J112">
         <f t="shared" ca="1" si="22"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K112">
         <f t="shared" ca="1" si="23"/>
-        <v>1262</v>
+        <v>2043</v>
       </c>
       <c r="L112">
         <f t="shared" ca="1" si="24"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5199,15 +5199,15 @@
       </c>
       <c r="C113">
         <f t="shared" ca="1" si="18"/>
-        <v>120741</v>
+        <v>113044</v>
       </c>
       <c r="D113">
         <f t="shared" ca="1" si="19"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E113">
         <f t="shared" ca="1" si="20"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F113">
         <f t="shared" ca="1" si="21"/>
@@ -5218,23 +5218,23 @@
       </c>
       <c r="H113">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113">
         <f t="shared" ca="1" si="17"/>
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="J113">
         <f t="shared" ca="1" si="22"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K113">
         <f t="shared" ca="1" si="23"/>
-        <v>1573</v>
+        <v>1245</v>
       </c>
       <c r="L113">
         <f t="shared" ca="1" si="24"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5243,7 +5243,7 @@
       </c>
       <c r="C114">
         <f t="shared" ca="1" si="18"/>
-        <v>89918</v>
+        <v>87895</v>
       </c>
       <c r="D114">
         <f t="shared" ca="1" si="19"/>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="E114">
         <f t="shared" ca="1" si="20"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F114">
         <f t="shared" ca="1" si="21"/>
@@ -5262,23 +5262,23 @@
       </c>
       <c r="H114">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114">
         <f t="shared" ca="1" si="17"/>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J114">
         <f t="shared" ca="1" si="22"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K114">
         <f t="shared" ca="1" si="23"/>
-        <v>1884</v>
+        <v>2349</v>
       </c>
       <c r="L114">
         <f t="shared" ca="1" si="24"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5287,26 +5287,26 @@
       </c>
       <c r="C115">
         <f t="shared" ca="1" si="18"/>
-        <v>76181</v>
+        <v>50637</v>
       </c>
       <c r="D115">
         <f t="shared" ca="1" si="19"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E115">
         <f t="shared" ca="1" si="20"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F115">
         <f t="shared" ca="1" si="21"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G115">
         <v>3</v>
       </c>
       <c r="H115">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115">
         <f t="shared" ca="1" si="17"/>
@@ -5314,15 +5314,15 @@
       </c>
       <c r="J115">
         <f t="shared" ca="1" si="22"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K115">
         <f t="shared" ca="1" si="23"/>
-        <v>2315</v>
+        <v>2342</v>
       </c>
       <c r="L115">
         <f t="shared" ca="1" si="24"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5331,30 +5331,30 @@
       </c>
       <c r="C116">
         <f t="shared" ca="1" si="18"/>
-        <v>125794</v>
+        <v>78504</v>
       </c>
       <c r="D116">
         <f t="shared" ca="1" si="19"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E116">
         <f t="shared" ca="1" si="20"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F116">
         <f t="shared" ca="1" si="21"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G116">
         <v>3</v>
       </c>
       <c r="H116">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116">
         <f t="shared" ca="1" si="17"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J116">
         <f t="shared" ca="1" si="22"/>
@@ -5362,11 +5362,11 @@
       </c>
       <c r="K116">
         <f t="shared" ca="1" si="23"/>
-        <v>2563</v>
+        <v>1761</v>
       </c>
       <c r="L116">
         <f t="shared" ca="1" si="24"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5375,7 +5375,7 @@
       </c>
       <c r="C117">
         <f t="shared" ca="1" si="18"/>
-        <v>60911</v>
+        <v>124886</v>
       </c>
       <c r="D117">
         <f t="shared" ca="1" si="19"/>
@@ -5383,34 +5383,34 @@
       </c>
       <c r="E117">
         <f t="shared" ca="1" si="20"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F117">
         <f t="shared" ca="1" si="21"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G117">
         <v>3</v>
       </c>
       <c r="H117">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117">
         <f t="shared" ca="1" si="17"/>
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="J117">
         <f t="shared" ca="1" si="22"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K117">
         <f t="shared" ca="1" si="23"/>
-        <v>1973</v>
+        <v>2375</v>
       </c>
       <c r="L117">
         <f t="shared" ca="1" si="24"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5419,7 +5419,7 @@
       </c>
       <c r="C118">
         <f t="shared" ca="1" si="18"/>
-        <v>90667</v>
+        <v>83937</v>
       </c>
       <c r="D118">
         <f t="shared" ca="1" si="19"/>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="F118">
         <f t="shared" ca="1" si="21"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G118">
         <v>3</v>
@@ -5442,19 +5442,19 @@
       </c>
       <c r="I118">
         <f t="shared" ca="1" si="17"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J118">
         <f t="shared" ca="1" si="22"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K118">
         <f t="shared" ca="1" si="23"/>
-        <v>1954</v>
+        <v>1340</v>
       </c>
       <c r="L118">
         <f t="shared" ca="1" si="24"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5463,7 +5463,7 @@
       </c>
       <c r="C119">
         <f t="shared" ca="1" si="18"/>
-        <v>87898</v>
+        <v>103590</v>
       </c>
       <c r="D119">
         <f t="shared" ca="1" si="19"/>
@@ -5475,18 +5475,18 @@
       </c>
       <c r="F119">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G119">
         <v>3</v>
       </c>
       <c r="H119">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119">
         <f t="shared" ca="1" si="17"/>
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J119">
         <f t="shared" ca="1" si="22"/>
@@ -5494,11 +5494,11 @@
       </c>
       <c r="K119">
         <f t="shared" ca="1" si="23"/>
-        <v>1724</v>
+        <v>1716</v>
       </c>
       <c r="L119">
         <f t="shared" ca="1" si="24"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5507,11 +5507,11 @@
       </c>
       <c r="C120">
         <f t="shared" ca="1" si="18"/>
-        <v>63628</v>
+        <v>64265</v>
       </c>
       <c r="D120">
         <f t="shared" ca="1" si="19"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E120">
         <f t="shared" ca="1" si="20"/>
@@ -5526,23 +5526,23 @@
       </c>
       <c r="H120">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120">
         <f t="shared" ca="1" si="17"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J120">
         <f t="shared" ca="1" si="22"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K120">
         <f t="shared" ca="1" si="23"/>
-        <v>2762</v>
+        <v>2247</v>
       </c>
       <c r="L120">
         <f t="shared" ca="1" si="24"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5551,15 +5551,15 @@
       </c>
       <c r="C121">
         <f t="shared" ca="1" si="18"/>
-        <v>59911</v>
+        <v>76608</v>
       </c>
       <c r="D121">
         <f t="shared" ca="1" si="19"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E121">
         <f t="shared" ca="1" si="20"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F121">
         <f t="shared" ca="1" si="21"/>
@@ -5570,23 +5570,23 @@
       </c>
       <c r="H121">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121">
         <f t="shared" ca="1" si="17"/>
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="J121">
         <f t="shared" ca="1" si="22"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K121">
         <f t="shared" ca="1" si="23"/>
-        <v>2095</v>
+        <v>2076</v>
       </c>
       <c r="L121">
         <f t="shared" ca="1" si="24"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5595,11 +5595,11 @@
       </c>
       <c r="C122">
         <f t="shared" ca="1" si="18"/>
-        <v>91843</v>
+        <v>118291</v>
       </c>
       <c r="D122">
         <f t="shared" ca="1" si="19"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E122">
         <f t="shared" ca="1" si="20"/>
@@ -5607,30 +5607,30 @@
       </c>
       <c r="F122">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G122">
         <v>3</v>
       </c>
       <c r="H122">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122">
         <f t="shared" ca="1" si="17"/>
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J122">
         <f t="shared" ca="1" si="22"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K122">
         <f t="shared" ca="1" si="23"/>
-        <v>2951</v>
+        <v>1573</v>
       </c>
       <c r="L122">
         <f t="shared" ca="1" si="24"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5639,19 +5639,19 @@
       </c>
       <c r="C123">
         <f t="shared" ca="1" si="18"/>
-        <v>59301</v>
+        <v>128992</v>
       </c>
       <c r="D123">
         <f t="shared" ca="1" si="19"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E123">
         <f t="shared" ca="1" si="20"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F123">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G123">
         <v>3</v>
@@ -5662,19 +5662,19 @@
       </c>
       <c r="I123">
         <f t="shared" ca="1" si="17"/>
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J123">
         <f t="shared" ca="1" si="22"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K123">
         <f t="shared" ca="1" si="23"/>
-        <v>2915</v>
+        <v>2501</v>
       </c>
       <c r="L123">
         <f t="shared" ca="1" si="24"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5683,30 +5683,30 @@
       </c>
       <c r="C124">
         <f t="shared" ca="1" si="18"/>
-        <v>64513</v>
+        <v>94336</v>
       </c>
       <c r="D124">
         <f t="shared" ca="1" si="19"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E124">
         <f t="shared" ca="1" si="20"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F124">
         <f t="shared" ca="1" si="21"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G124">
         <v>3</v>
       </c>
       <c r="H124">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124">
         <f t="shared" ca="1" si="17"/>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J124">
         <f t="shared" ca="1" si="22"/>
@@ -5714,11 +5714,11 @@
       </c>
       <c r="K124">
         <f t="shared" ca="1" si="23"/>
-        <v>2323</v>
+        <v>1872</v>
       </c>
       <c r="L124">
         <f t="shared" ca="1" si="24"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5727,19 +5727,19 @@
       </c>
       <c r="C125">
         <f t="shared" ca="1" si="18"/>
-        <v>61831</v>
+        <v>94646</v>
       </c>
       <c r="D125">
         <f t="shared" ca="1" si="19"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E125">
         <f t="shared" ca="1" si="20"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F125">
         <f t="shared" ca="1" si="21"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G125">
         <v>3</v>
@@ -5750,19 +5750,19 @@
       </c>
       <c r="I125">
         <f t="shared" ca="1" si="17"/>
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="J125">
         <f t="shared" ca="1" si="22"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K125">
         <f t="shared" ca="1" si="23"/>
-        <v>2250</v>
+        <v>1734</v>
       </c>
       <c r="L125">
         <f t="shared" ca="1" si="24"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5771,11 +5771,11 @@
       </c>
       <c r="C126">
         <f t="shared" ca="1" si="18"/>
-        <v>73243</v>
+        <v>107921</v>
       </c>
       <c r="D126">
         <f t="shared" ca="1" si="19"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E126">
         <f t="shared" ca="1" si="20"/>
@@ -5790,23 +5790,23 @@
       </c>
       <c r="H126">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126">
         <f t="shared" ca="1" si="17"/>
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="J126">
         <f t="shared" ca="1" si="22"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K126">
         <f t="shared" ca="1" si="23"/>
-        <v>2573</v>
+        <v>1220</v>
       </c>
       <c r="L126">
         <f t="shared" ca="1" si="24"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="C127">
         <f t="shared" ca="1" si="18"/>
-        <v>54968</v>
+        <v>56228</v>
       </c>
       <c r="D127">
         <f t="shared" ca="1" si="19"/>
@@ -5823,11 +5823,11 @@
       </c>
       <c r="E127">
         <f t="shared" ca="1" si="20"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F127">
         <f t="shared" ca="1" si="21"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -5838,19 +5838,19 @@
       </c>
       <c r="I127">
         <f t="shared" ca="1" si="17"/>
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J127">
         <f t="shared" ca="1" si="22"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K127">
         <f t="shared" ca="1" si="23"/>
-        <v>1355</v>
+        <v>1320</v>
       </c>
       <c r="L127">
         <f t="shared" ca="1" si="24"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5859,11 +5859,11 @@
       </c>
       <c r="C128">
         <f t="shared" ca="1" si="18"/>
-        <v>98476</v>
+        <v>55945</v>
       </c>
       <c r="D128">
         <f t="shared" ca="1" si="19"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E128">
         <f t="shared" ca="1" si="20"/>
@@ -5871,7 +5871,7 @@
       </c>
       <c r="F128">
         <f t="shared" ca="1" si="21"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G128">
         <v>3</v>
@@ -5882,19 +5882,19 @@
       </c>
       <c r="I128">
         <f t="shared" ca="1" si="17"/>
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J128">
         <f t="shared" ca="1" si="22"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K128">
         <f t="shared" ca="1" si="23"/>
-        <v>2249</v>
+        <v>1941</v>
       </c>
       <c r="L128">
         <f t="shared" ca="1" si="24"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5903,15 +5903,15 @@
       </c>
       <c r="C129">
         <f t="shared" ca="1" si="18"/>
-        <v>52558</v>
+        <v>50665</v>
       </c>
       <c r="D129">
         <f t="shared" ca="1" si="19"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E129">
         <f t="shared" ca="1" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F129">
         <f t="shared" ca="1" si="21"/>
@@ -5922,23 +5922,23 @@
       </c>
       <c r="H129">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129">
         <f t="shared" ca="1" si="17"/>
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="J129">
         <f t="shared" ca="1" si="22"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K129">
         <f t="shared" ca="1" si="23"/>
-        <v>2487</v>
+        <v>1841</v>
       </c>
       <c r="L129">
         <f t="shared" ca="1" si="24"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5947,7 +5947,7 @@
       </c>
       <c r="C130">
         <f t="shared" ca="1" si="18"/>
-        <v>68316</v>
+        <v>99487</v>
       </c>
       <c r="D130">
         <f t="shared" ca="1" si="19"/>
@@ -5966,19 +5966,19 @@
       </c>
       <c r="H130">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130">
         <f t="shared" ca="1" si="17"/>
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J130">
         <f t="shared" ca="1" si="22"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K130">
         <f t="shared" ca="1" si="23"/>
-        <v>1775</v>
+        <v>2282</v>
       </c>
       <c r="L130">
         <f t="shared" ca="1" si="24"/>
@@ -5991,19 +5991,19 @@
       </c>
       <c r="C131">
         <f t="shared" ca="1" si="18"/>
-        <v>100150</v>
+        <v>114186</v>
       </c>
       <c r="D131">
         <f t="shared" ca="1" si="19"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E131">
         <f t="shared" ca="1" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F131">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G131">
         <v>3</v>
@@ -6014,15 +6014,15 @@
       </c>
       <c r="I131">
         <f t="shared" ca="1" si="17"/>
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="J131">
         <f t="shared" ca="1" si="22"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K131">
         <f t="shared" ca="1" si="23"/>
-        <v>1474</v>
+        <v>1329</v>
       </c>
       <c r="L131">
         <f t="shared" ca="1" si="24"/>
@@ -6035,15 +6035,15 @@
       </c>
       <c r="C132">
         <f t="shared" ca="1" si="18"/>
-        <v>120280</v>
+        <v>68948</v>
       </c>
       <c r="D132">
         <f t="shared" ca="1" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E132">
         <f t="shared" ca="1" si="20"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F132">
         <f t="shared" ca="1" si="21"/>
@@ -6054,19 +6054,19 @@
       </c>
       <c r="H132">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132">
         <f t="shared" ca="1" si="17"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J132">
         <f t="shared" ca="1" si="22"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K132">
         <f t="shared" ca="1" si="23"/>
-        <v>1687</v>
+        <v>1498</v>
       </c>
       <c r="L132">
         <f t="shared" ca="1" si="24"/>
@@ -6079,15 +6079,15 @@
       </c>
       <c r="C133">
         <f t="shared" ca="1" si="18"/>
-        <v>81939</v>
+        <v>65539</v>
       </c>
       <c r="D133">
         <f t="shared" ca="1" si="19"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E133">
         <f t="shared" ca="1" si="20"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F133">
         <f t="shared" ca="1" si="21"/>
@@ -6102,19 +6102,19 @@
       </c>
       <c r="I133">
         <f t="shared" ca="1" si="17"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J133">
         <f t="shared" ca="1" si="22"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K133">
         <f t="shared" ca="1" si="23"/>
-        <v>1522</v>
+        <v>2640</v>
       </c>
       <c r="L133">
         <f t="shared" ca="1" si="24"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6123,38 +6123,38 @@
       </c>
       <c r="C134">
         <f t="shared" ca="1" si="18"/>
-        <v>100985</v>
+        <v>67687</v>
       </c>
       <c r="D134">
         <f t="shared" ca="1" si="19"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E134">
         <f t="shared" ca="1" si="20"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F134">
         <f t="shared" ca="1" si="21"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G134">
         <v>3</v>
       </c>
       <c r="H134">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134">
         <f t="shared" ca="1" si="17"/>
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J134">
         <f t="shared" ca="1" si="22"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K134">
         <f t="shared" ca="1" si="23"/>
-        <v>2075</v>
+        <v>1759</v>
       </c>
       <c r="L134">
         <f t="shared" ca="1" si="24"/>
@@ -6167,11 +6167,11 @@
       </c>
       <c r="C135">
         <f t="shared" ca="1" si="18"/>
-        <v>127686</v>
+        <v>89158</v>
       </c>
       <c r="D135">
         <f t="shared" ca="1" si="19"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E135">
         <f t="shared" ca="1" si="20"/>
@@ -6186,23 +6186,23 @@
       </c>
       <c r="H135">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135">
         <f t="shared" ca="1" si="17"/>
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="J135">
         <f t="shared" ca="1" si="22"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K135">
         <f t="shared" ca="1" si="23"/>
-        <v>1943</v>
+        <v>1995</v>
       </c>
       <c r="L135">
         <f t="shared" ca="1" si="24"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6211,7 +6211,7 @@
       </c>
       <c r="C136">
         <f t="shared" ca="1" si="18"/>
-        <v>57625</v>
+        <v>117560</v>
       </c>
       <c r="D136">
         <f t="shared" ca="1" si="19"/>
@@ -6219,11 +6219,11 @@
       </c>
       <c r="E136">
         <f t="shared" ca="1" si="20"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F136">
         <f t="shared" ca="1" si="21"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G136">
         <v>3</v>
@@ -6234,19 +6234,19 @@
       </c>
       <c r="I136">
         <f t="shared" ca="1" si="17"/>
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="J136">
         <f t="shared" ca="1" si="22"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K136">
         <f t="shared" ca="1" si="23"/>
-        <v>2287</v>
+        <v>2949</v>
       </c>
       <c r="L136">
         <f t="shared" ca="1" si="24"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6255,19 +6255,19 @@
       </c>
       <c r="C137">
         <f t="shared" ca="1" si="18"/>
-        <v>73583</v>
+        <v>76250</v>
       </c>
       <c r="D137">
         <f t="shared" ca="1" si="19"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E137">
         <f t="shared" ca="1" si="20"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F137">
         <f t="shared" ca="1" si="21"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G137">
         <v>3</v>
@@ -6278,7 +6278,7 @@
       </c>
       <c r="I137">
         <f t="shared" ca="1" si="17"/>
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="J137">
         <f t="shared" ca="1" si="22"/>
@@ -6286,11 +6286,11 @@
       </c>
       <c r="K137">
         <f t="shared" ca="1" si="23"/>
-        <v>2424</v>
+        <v>2748</v>
       </c>
       <c r="L137">
         <f t="shared" ca="1" si="24"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6299,7 +6299,7 @@
       </c>
       <c r="C138">
         <f t="shared" ca="1" si="18"/>
-        <v>126076</v>
+        <v>104959</v>
       </c>
       <c r="D138">
         <f t="shared" ca="1" si="19"/>
@@ -6307,22 +6307,22 @@
       </c>
       <c r="E138">
         <f t="shared" ca="1" si="20"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F138">
         <f t="shared" ca="1" si="21"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G138">
         <v>3</v>
       </c>
       <c r="H138">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138">
         <f t="shared" ca="1" si="17"/>
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="J138">
         <f t="shared" ca="1" si="22"/>
@@ -6330,7 +6330,7 @@
       </c>
       <c r="K138">
         <f t="shared" ca="1" si="23"/>
-        <v>2297</v>
+        <v>2083</v>
       </c>
       <c r="L138">
         <f t="shared" ca="1" si="24"/>
@@ -6343,15 +6343,15 @@
       </c>
       <c r="C139">
         <f t="shared" ca="1" si="18"/>
-        <v>75754</v>
+        <v>96590</v>
       </c>
       <c r="D139">
         <f t="shared" ca="1" si="19"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E139">
         <f t="shared" ca="1" si="20"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F139">
         <f t="shared" ca="1" si="21"/>
@@ -6362,23 +6362,23 @@
       </c>
       <c r="H139">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139">
         <f t="shared" ca="1" si="17"/>
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="J139">
         <f t="shared" ca="1" si="22"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K139">
         <f t="shared" ca="1" si="23"/>
-        <v>1736</v>
+        <v>1432</v>
       </c>
       <c r="L139">
         <f t="shared" ca="1" si="24"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6387,7 +6387,7 @@
       </c>
       <c r="C140">
         <f t="shared" ca="1" si="18"/>
-        <v>59421</v>
+        <v>119896</v>
       </c>
       <c r="D140">
         <f t="shared" ca="1" si="19"/>
@@ -6395,7 +6395,7 @@
       </c>
       <c r="E140">
         <f t="shared" ca="1" si="20"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F140">
         <f t="shared" ca="1" si="21"/>
@@ -6406,11 +6406,11 @@
       </c>
       <c r="H140">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140">
         <f t="shared" ca="1" si="17"/>
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="J140">
         <f t="shared" ca="1" si="22"/>
@@ -6418,7 +6418,7 @@
       </c>
       <c r="K140">
         <f t="shared" ca="1" si="23"/>
-        <v>2761</v>
+        <v>1711</v>
       </c>
       <c r="L140">
         <f t="shared" ca="1" si="24"/>
